--- a/applications/Brazil/Manaus_validation.xlsx
+++ b/applications/Brazil/Manaus_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>10786</v>
+        <v>11575</v>
       </c>
       <c r="B3">
-        <v>14453</v>
+        <v>15067</v>
       </c>
       <c r="C3">
-        <v>17756</v>
+        <v>18074</v>
       </c>
       <c r="D3">
-        <v>27438</v>
+        <v>27376</v>
       </c>
       <c r="I3">
-        <v>996</v>
+        <v>907</v>
       </c>
       <c r="J3">
-        <v>1212</v>
+        <v>1179</v>
       </c>
       <c r="K3">
-        <v>1406</v>
+        <v>1346</v>
       </c>
       <c r="L3">
-        <v>1992</v>
+        <v>1912</v>
       </c>
     </row>
   </sheetData>
